--- a/biology/Histoire de la zoologie et de la botanique/Agostino_Perini/Agostino_Perini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Agostino_Perini/Agostino_Perini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agostino Perini (né le 2 décembre 1802 à Trente et mort le 19 octobre 1878 à Padoue) était un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agostino Perini passe son enfance dans l’exploitation familiale et développe très tôt un fort amour de la nature. Il entre en 1819 dans un collège de Datschitz en Moravie mais il le quitte bientôt pour aller à Vienne. De retour à Trente, il devient forestier et enseigne le dessin à l’école normale de la ville. Il acquiert alors de solides connaissances en sciences forestières, en botanique, en agronomie ainsi qu’en sériciculture.
 Perini se marie en 1828 avec Francesca Cippani, union dont naîtra quatre filles. Son opposition à la domination autrichienne l’oblige à quitter ses fonctions. Il devient alors à la Société agricole de Trente qui est dissoute en 1848 probablement à cause de son orientation jugée trop libérale. Avec son frère Carlo Perini (1817-1883), il fonde une imprimerie qui édite notamment la Gazzetta di Trento (à partir de 1849). En 1852, il accepte d’imprimer la journal officiel, Gazzetta Ufficiale, ce qui provoque beaucoup de rancœurs autour lui et l’entreprise perd bientôt la plupart de ses clients. Perini part alors à Padoue où il finit sa vie dans une assez grande misère.
